--- a/docs/ПЭ/ElementsList.xlsx
+++ b/docs/ПЭ/ElementsList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt\XmlD27\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Internal projects\GOSTDocBuilder\DocGOST\docs\ПЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACEB671-2ADC-44D3-9A94-9B83B550F1B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8607516-BBF0-469D-A1C8-E270CF7CEA9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="375" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="NEXT" sheetId="2" r:id="rId2"/>
-    <sheet name="END" sheetId="4" r:id="rId3"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="ЛРИ" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1945,6 +1945,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1963,194 +2152,218 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2167,359 +2380,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -2929,7 +2929,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:J19"/>
     </sheetView>
   </sheetViews>
@@ -2953,682 +2953,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="51" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="104"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="102"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="101" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="101" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="102"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="102"/>
+      <c r="B7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="101" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="101" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="101" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="102"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="101" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="101" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="101" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="101" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="101" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="101" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="101" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="101" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="102"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="101" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="101" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="102"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="101" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="101" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="102"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="107"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="101" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="102"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="81"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
     </row>
     <row r="31" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="89"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="84"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="91"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="87"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
     </row>
     <row r="33" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="68" t="s">
+      <c r="C33" s="45"/>
+      <c r="D33" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="70"/>
-      <c r="L33" s="51" t="s">
+      <c r="K33" s="65"/>
+      <c r="L33" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
@@ -3638,20 +3638,20 @@
     </row>
     <row r="34" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="76" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
       <c r="L34" s="3" t="s">
         <v>33</v>
       </c>
@@ -3668,75 +3668,75 @@
     </row>
     <row r="35" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="78" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="76" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="76"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="77" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77">
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="76" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76" t="s">
+      <c r="E36" s="71"/>
+      <c r="F36" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="76"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48" t="s">
+      <c r="E37" s="90"/>
+      <c r="F37" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="48"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="95" t="s">
+      <c r="J37" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="96"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3744,44 +3744,93 @@
     <protectedRange password="CF7A" sqref="D1:P1 A15:C37 D30:P37 A1:C14" name="Диапазон3"/>
   </protectedRanges>
   <mergeCells count="150">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:P37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J30:P32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
@@ -3806,94 +3855,45 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:P37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J30:P32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.1875" top="0.26268115942028986" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3908,7 +3908,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J34" sqref="J34:O37"/>
     </sheetView>
   </sheetViews>
@@ -3931,460 +3931,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110" t="s">
+      <c r="A1" s="179"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113" t="s">
+      <c r="E1" s="182"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="51" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="113" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121" t="s">
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121" t="s">
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="132" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="134"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="116"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121" t="s">
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121" t="s">
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121" t="s">
+      <c r="B14" s="179"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121" t="s">
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="121" t="s">
+      <c r="C17" s="166"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="121" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="121" t="s">
+      <c r="C21" s="166"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
@@ -4392,57 +4392,57 @@
         <v>24</v>
       </c>
       <c r="C24" s="146"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="144"/>
       <c r="C25" s="147"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="145"/>
       <c r="C26" s="148"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
@@ -4450,225 +4450,225 @@
         <v>12</v>
       </c>
       <c r="C27" s="141"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="140"/>
       <c r="C28" s="142"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="140"/>
       <c r="C29" s="142"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="140"/>
       <c r="C30" s="142"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="153" t="s">
+      <c r="D30" s="157"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="122"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="151"/>
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="140"/>
       <c r="C31" s="142"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="153" t="s">
+      <c r="D31" s="157"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="122"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="151"/>
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="134"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
     </row>
     <row r="33" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="134"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
     </row>
     <row r="34" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="162"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="169" t="s">
+      <c r="F34" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="169"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="167" t="s">
+      <c r="J34" s="126"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="121" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="170" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="181" t="s">
+      <c r="E35" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="183" t="s">
+      <c r="F35" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="170"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="176"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="177"/>
-      <c r="P35" s="168"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="122"/>
     </row>
     <row r="36" spans="1:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="167"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="121"/>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="163"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="91"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="178"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="168"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="122"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -4677,26 +4677,116 @@
     <protectedRange password="CF7A" sqref="F37:G37" name="Диапазон3"/>
   </protectedRanges>
   <mergeCells count="154">
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J34:O37"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B1:C14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="B24:B26"/>
@@ -4721,116 +4811,26 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="B1:C14"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J34:O37"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="I35:I36"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.17156862745098039" bottom="0.13480392156862744" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4844,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -4870,833 +4870,833 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220"/>
+      <c r="A1" s="185"/>
       <c r="B1" s="30"/>
       <c r="C1" s="31"/>
-      <c r="D1" s="221" t="s">
+      <c r="D1" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="220"/>
+      <c r="A2" s="185"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="198" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="207" t="s">
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="207" t="s">
+      <c r="O2" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="224" t="s">
+      <c r="P2" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="207" t="s">
+      <c r="Q2" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="226" t="s">
+      <c r="R2" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="227"/>
+      <c r="S2" s="202"/>
     </row>
     <row r="3" spans="1:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="203" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="205"/>
-      <c r="H3" s="203" t="s">
+      <c r="G3" s="196"/>
+      <c r="H3" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="203" t="s">
+      <c r="I3" s="196"/>
+      <c r="J3" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="204"/>
-      <c r="L3" s="205"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="196"/>
       <c r="M3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="229"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="204"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="189"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="187"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="189"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="187"/>
     </row>
     <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="186"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="189"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="186"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="189"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="186"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="189"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
     </row>
     <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="186"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="189"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="186"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="189"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="186"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="189"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="186"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="189"/>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="186"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="189"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="186"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="189"/>
     </row>
     <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="186"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="189"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="186"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="189"/>
     </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="186"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="189"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="186"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="189"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="220"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="186"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="189"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="186"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="189"/>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="220"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="186"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="189"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="186"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="189"/>
     </row>
     <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="186"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="189"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="186"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="189"/>
     </row>
     <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="186"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="189"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="186"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="189"/>
     </row>
     <row r="16" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="32"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="186"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="189"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="186"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="189"/>
     </row>
     <row r="17" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="186"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="189"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="186"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="189"/>
     </row>
     <row r="18" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="186"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="189"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="186"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="189"/>
     </row>
     <row r="19" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="186"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="189"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="186"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="189"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="186"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="189"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="186"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="189"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="186"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="189"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="186"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="189"/>
     </row>
     <row r="22" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="186"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="189"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="186"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="189"/>
     </row>
     <row r="23" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="186"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="189"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="186"/>
+      <c r="R23" s="188"/>
+      <c r="S23" s="189"/>
     </row>
     <row r="24" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="186"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="189"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="186"/>
+      <c r="R24" s="188"/>
+      <c r="S24" s="189"/>
     </row>
     <row r="25" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="186"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="189"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="186"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="189"/>
     </row>
     <row r="26" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="186"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="189"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="186"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="189"/>
     </row>
     <row r="27" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
-      <c r="B27" s="190" t="s">
+      <c r="B27" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="190"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="186"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="189"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="186"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="189"/>
     </row>
     <row r="28" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="186"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="226"/>
+      <c r="L28" s="189"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="186"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="189"/>
     </row>
     <row r="29" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="186"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="189"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="186"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="189"/>
     </row>
     <row r="30" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="186"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="189"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="186"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="189"/>
     </row>
     <row r="31" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="186"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="189"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="186"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="189"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="186"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="189"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="186"/>
+      <c r="R32" s="188"/>
+      <c r="S32" s="189"/>
     </row>
     <row r="33" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="202"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="209"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="202"/>
+      <c r="R33" s="208"/>
+      <c r="S33" s="209"/>
     </row>
     <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="187"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="211"/>
-      <c r="M34" s="212"/>
-      <c r="N34" s="212"/>
-      <c r="O34" s="212"/>
-      <c r="P34" s="212"/>
-      <c r="Q34" s="212"/>
-      <c r="R34" s="213"/>
-      <c r="S34" s="210" t="s">
+      <c r="L34" s="210"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="211"/>
+      <c r="P34" s="211"/>
+      <c r="Q34" s="211"/>
+      <c r="R34" s="212"/>
+      <c r="S34" s="206" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="191" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="191" t="s">
+      <c r="E35" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191" t="s">
+      <c r="F35" s="221"/>
+      <c r="G35" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="191"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="214"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="215"/>
-      <c r="R35" s="216"/>
-      <c r="S35" s="192"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="221"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="214"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="214"/>
+      <c r="P35" s="214"/>
+      <c r="Q35" s="214"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="207"/>
     </row>
     <row r="36" spans="1:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="214"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="215"/>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="215"/>
-      <c r="R36" s="216"/>
-      <c r="S36" s="210"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="213"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="214"/>
+      <c r="P36" s="214"/>
+      <c r="Q36" s="214"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="206"/>
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="196" t="s">
+      <c r="E37" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="197"/>
-      <c r="G37" s="196" t="s">
+      <c r="F37" s="194"/>
+      <c r="G37" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198" t="s">
+      <c r="H37" s="194"/>
+      <c r="I37" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="199"/>
+      <c r="J37" s="224"/>
       <c r="K37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="217"/>
-      <c r="M37" s="218"/>
-      <c r="N37" s="218"/>
-      <c r="O37" s="218"/>
-      <c r="P37" s="218"/>
-      <c r="Q37" s="218"/>
-      <c r="R37" s="219"/>
-      <c r="S37" s="192"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="217"/>
+      <c r="N37" s="217"/>
+      <c r="O37" s="217"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="217"/>
+      <c r="R37" s="218"/>
+      <c r="S37" s="207"/>
     </row>
     <row r="38" spans="1:19" s="37" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
@@ -5707,6 +5707,168 @@
     <protectedRange password="CF7A" sqref="J3 A1:C37 I37 B1:H3 D34:H37 K37 M34:S37 I34:L36 I1:L2 N2:R2 M1:S1 L3:S3" name="Диапазон1"/>
   </protectedRanges>
   <mergeCells count="186">
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="L34:R37"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A1:A13"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -5731,168 +5893,6 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R8:S8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="L34:R37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.18115942028985507" bottom="0.11458333333333333" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
